--- a/hunjian.xlsx
+++ b/hunjian.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
   <si>
     <t>薄荷之夏</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>太子妃升职记</t>
+  </si>
+  <si>
+    <t>风中奇缘</t>
+  </si>
+  <si>
+    <t>匹诺曹</t>
+  </si>
+  <si>
+    <t>暗恋·橘生淮南</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1812,6 +1821,26 @@
     <row r="42" ht="14.25" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/hunjian.xlsx
+++ b/hunjian.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="54">
   <si>
     <t>薄荷之夏</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>暗恋·橘生淮南</t>
+  </si>
+  <si>
+    <t>江南思雨</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1841,6 +1844,11 @@
     <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/hunjian.xlsx
+++ b/hunjian.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
   <si>
     <t>薄荷之夏</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>江南思雨</t>
+  </si>
+  <si>
+    <t>她不是孙大圣</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1849,6 +1852,11 @@
     <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/hunjian.xlsx
+++ b/hunjian.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>薄荷之夏</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>她不是孙大圣</t>
+  </si>
+  <si>
+    <t>嘿！真不是闹着玩的</t>
+  </si>
+  <si>
+    <t>相爱十年</t>
+  </si>
+  <si>
+    <t>听见我的声音</t>
+  </si>
+  <si>
+    <t>点燃我，温暖你</t>
+  </si>
+  <si>
+    <t>忘川序</t>
+  </si>
+  <si>
+    <t>双世萌妻</t>
+  </si>
+  <si>
+    <t>白秘书每天都想辞职</t>
+  </si>
+  <si>
+    <t>你是我的美味</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1857,6 +1881,46 @@
     <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/hunjian.xlsx
+++ b/hunjian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>薄荷之夏</t>
   </si>
@@ -36,30 +36,15 @@
     <t>狐狸小姐不好惹</t>
   </si>
   <si>
-    <t>都市爱情</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>电视剧</t>
-  </si>
-  <si>
     <t>别惹前女友</t>
   </si>
   <si>
     <t>双面宠妃闯关记</t>
   </si>
   <si>
-    <t>古装宫廷</t>
-  </si>
-  <si>
     <t>开学吧，博仁少年</t>
   </si>
   <si>
-    <t>青春偶像校园</t>
-  </si>
-  <si>
     <t>戏精女主桃花多</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>青蛇情缘再起</t>
   </si>
   <si>
-    <t>武侠神话</t>
-  </si>
-  <si>
     <t>二十四味暖浮生</t>
   </si>
   <si>
@@ -135,18 +117,12 @@
     <t>恋爱角色请指定</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>我的兄弟不可能这么萌</t>
   </si>
   <si>
     <t>加油呀！茉莉</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>没关系，那是治愈</t>
   </si>
   <si>
@@ -205,6 +181,30 @@
   </si>
   <si>
     <t>你是我的美味</t>
+  </si>
+  <si>
+    <t>保护我方城主大人</t>
+  </si>
+  <si>
+    <t>限时恋人</t>
+  </si>
+  <si>
+    <t>唱首时光给你听</t>
+  </si>
+  <si>
+    <t>我们最好的时光</t>
+  </si>
+  <si>
+    <t>你是人间理想</t>
+  </si>
+  <si>
+    <t>爱上来自星星的你</t>
+  </si>
+  <si>
+    <t>是谁偷吻我</t>
+  </si>
+  <si>
+    <t>奇妙的恋爱</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1200,727 +1200,474 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" ht="14.25" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" ht="14.25" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" ht="14.25" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" ht="14.25" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" ht="14.25" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" ht="14.25" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" ht="14.25" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" ht="14.25" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" ht="14.25" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
